--- a/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,52 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-14 + x</t>
-  </si>
-  <si>
-    <t>-12.347641134128152</t>
+    <t>-4.75 + x</t>
+  </si>
+  <si>
+    <t>-9.25</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5416861885182938</t>
-  </si>
-  <si>
-    <t>0.5493078246530966</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-2 + x - 1.6650058110014556y</t>
-  </si>
-  <si>
-    <t>-6.394399512633504</t>
+    <t>-13.902999999999999 + x + 2.26y</t>
+  </si>
+  <si>
+    <t>11.902999999999999</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9614613706904978</t>
-  </si>
-  <si>
-    <t>0.3702503497156989</t>
-  </si>
-  <si>
-    <t>-1 - 2x</t>
-  </si>
-  <si>
-    <t>-4.304717731743698</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>-2.3000000000000003</t>
+  </si>
+  <si>
+    <t>-5.6000000000000005</t>
+  </si>
+  <si>
+    <t>-28.802816901408452 - 2x - 4.272300469483569y</t>
+  </si>
+  <si>
+    <t>-27.802816901408452</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.8934192024608484</t>
-  </si>
-  <si>
-    <t>0.5962522633543946</t>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-9.1</t>
   </si>
   <si>
     <t>x</t>
@@ -120,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.6523588658718489</t>
-  </si>
-  <si>
-    <t>3.631674038944279</t>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>4.337490691364545</t>
+    <t>3.134320187793428</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.968228620596296</t>
-  </si>
-  <si>
-    <t>-2.981873283085143</t>
+    <t>-4.199999999999999</t>
+  </si>
+  <si>
+    <t>-7.434300469483568</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -612,27 +618,27 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -650,18 +656,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -679,12 +685,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -702,17 +708,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -730,12 +736,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.1674970944992722</v>
+        <v>2.13</v>
       </c>
     </row>
   </sheetData>
